--- a/pm2_rules_summary.xlsx
+++ b/pm2_rules_summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ruleDataItems" sheetId="1" state="visible" r:id="rId1"/>
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:GM111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2888,8 +2888,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
